--- a/data/metadata/Informe-01-010055-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010055-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-secundaria</t>
   </si>
@@ -103,7 +103,7 @@
     <t>personas-mano-obra-familiar-con-2499-y-50-trabajando-en-explotacion</t>
   </si>
   <si>
-    <t>iaest-dimension:personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-secundaria</t>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-secundaria</t>
   </si>
   <si>
     <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-solo-trabajan-en-la-explotacion</t>
@@ -118,7 +118,7 @@
     <t>iaest-measure:personas-mano-obra-familiar-otros-que--trabajan-tambien-en-otra-activ-lucrativa</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-principal</t>
@@ -187,22 +187,16 @@
     <t>iaest-measure:personas-mano-obra-familiar-con-2499-y-50-trabajando-en-explotacion</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
+    <t>xsd:int</t>
   </si>
   <si>
     <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>mapping-personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-secundaria.xlsx</t>
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
@@ -457,91 +451,91 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -549,102 +543,99 @@
         <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010055-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010055-A-TC-TM-TP.xlsx
@@ -11,182 +11,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
-  <si>
-    <t>personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuges-que-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-titulares-que-trabajan-tambien-en-otra-activ-lucrativa</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-titulares-que-trabajan-en-otra-actividad-como-principal</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros-que--trabajan-tambien-en-otra-activ-lucrativa</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-principal</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-con-100-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuges-que-trabajan-tambien-en-otra-activ-lucrativa</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-titulares-que-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-titulares-que-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-con-4999-y-75-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-con-7499-y-100-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-con-25-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-trabajan-tambien-en-otra-activ-lucrativa</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros--trabajan-en-otra-actividad-como-principal</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros-que-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-trabajan-en-otra-actividad-como-principal</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>personas-que-son-mano-de-obra-familiar</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros-que-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-con-2499-y-50-trabajando-en-explotacion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+  <si>
+    <t>Personas mano obra familiar trabajan también en otra activ. lucrativa</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar titulares que trabajan también en otra activ. lucrativa</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar titulares que trabajan en otra actividad como secundaria</t>
+  </si>
+  <si>
+    <t>Código de la provincia</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar trabajan en otra actividad como secundaria</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuges que trabajan en otra actividad como secundaria</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar con &gt;24,99 y &lt;50% trabajando en explotación</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros, que trabajan en otra actividad como secundaria</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuges que trabajan también en otra activ. Lucrativa</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar con &gt;49,99 y &lt;75% trabajando en explotación</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros, que sólo trabajan en la explotación</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar con &lt;25% trabajando en explotación</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuges que sólo trabajan en la explotación</t>
+  </si>
+  <si>
+    <t>Código de la comarca</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar titulares que trabajan en otra actividad como principal</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuges que trabajan en otra actividad como principal</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar con 100% trabajando en explotación</t>
+  </si>
+  <si>
+    <t>Comarca</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar con &gt;74,99 y &lt;100% trabajando en explotación</t>
+  </si>
+  <si>
+    <t>Nombre del municipio</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar titulares que sólo trabajan en la explotación</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros, que  trabajan también en otra activ. lucrativa</t>
+  </si>
+  <si>
+    <t>Personas que son mano de obra familiar</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar sólo trabajan en la explotación</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar trabajan en otra actividad como principal</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros,  trabajan en otra actividad como principal</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-trabajan-tambien-en-otra-activ-lucrativa</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-titulares-que-trabajan-tambien-en-otra-activ-lucrativa</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-titulares-que-trabajan-en-otra-actividad-como-secundaria</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-trabajan-en-otra-actividad-como-secundaria</t>
   </si>
   <si>
     <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-secundaria</t>
   </si>
   <si>
+    <t>iaest-measure:personas-mano-obra-familiar-con-2499-y-50-trabajando-en-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-otros-que-trabajan-en-otra-actividad-como-secundaria</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-tambien-en-otra-activ-lucrativa</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-con-4999-y-75-trabajando-en-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-otros-que-solo-trabajan-en-la-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-con-25-trabajando-en-explotacion</t>
+  </si>
+  <si>
     <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-solo-trabajan-en-la-explotacion</t>
   </si>
   <si>
-    <t>iaest-measure:personas-mano-obra-familiar-titulares-que-trabajan-tambien-en-otra-activ-lucrativa</t>
-  </si>
-  <si>
     <t>iaest-measure:personas-mano-obra-familiar-titulares-que-trabajan-en-otra-actividad-como-principal</t>
   </si>
   <si>
+    <t>sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t>iaest-measure:provincia</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-principal</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-con-100-trabajando-en-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:comarca</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-con-7499-y-100-trabajando-en-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:nombre-del-municipio</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-titulares-que-solo-trabajan-en-la-explotacion</t>
+  </si>
+  <si>
     <t>iaest-measure:personas-mano-obra-familiar-otros-que--trabajan-tambien-en-otra-activ-lucrativa</t>
   </si>
   <si>
-    <t>iaest-measure:provincia</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-en-otra-actividad-como-principal</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-con-100-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-conyuges-que-trabajan-tambien-en-otra-activ-lucrativa</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-titulares-que-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-titulares-que-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-con-4999-y-75-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-con-7499-y-100-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-con-25-trabajando-en-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-trabajan-tambien-en-otra-activ-lucrativa</t>
+    <t>iaest-measure:personas-que-son-mano-de-obra-familiar</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-solo-trabajan-en-la-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-trabajan-en-otra-actividad-como-principal</t>
   </si>
   <si>
     <t>iaest-measure:personas-mano-obra-familiar-otros--trabajan-en-otra-actividad-como-principal</t>
   </si>
   <si>
-    <t>iaest-measure:personas-mano-obra-familiar-otros-que-trabajan-en-otra-actividad-como-secundaria</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-trabajan-en-otra-actividad-como-principal</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-que-son-mano-de-obra-familiar</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-otros-que-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-solo-trabajan-en-la-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-con-2499-y-50-trabajando-en-explotacion</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -196,10 +196,13 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -386,19 +389,19 @@
         <v>39</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>44</v>
@@ -428,7 +431,7 @@
         <v>52</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>53</v>
@@ -457,10 +460,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>58</v>
@@ -475,10 +478,10 @@
         <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>58</v>
@@ -490,22 +493,22 @@
         <v>58</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>58</v>
@@ -520,7 +523,7 @@
         <v>58</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>58</v>
@@ -549,10 +552,10 @@
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>60</v>
@@ -567,10 +570,10 @@
         <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>60</v>
@@ -582,37 +585,37 @@
         <v>60</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>60</v>
@@ -631,11 +634,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="R5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>63</v>
+      <c r="Q5" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
